--- a/inst/extdata/pool.xlsx
+++ b/inst/extdata/pool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Documents\multilex\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A6D48A-B5F2-49DD-92F8-7D158B8CCF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E07306-0596-45EE-9A3B-8BDCBC61B5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15116,8 +15116,8 @@
   <dimension ref="A1:N1601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1577" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1604" sqref="K1604"/>
+      <pane ySplit="1" topLeftCell="A1543" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
